--- a/Documents/ER_Inventory/Test_Excel.xlsx
+++ b/Documents/ER_Inventory/Test_Excel.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SALINDA SANDARUWAN\SIBA_Dynamics\ER_Inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SALINDA SANDARUWAN\SIBA_Dynamics\Inventory-system-Dynamics\Inventory-2k23\Documents\ER_Inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7D7427-F671-45B5-A341-D0183E55B340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE302D78-41B0-4E79-BC6E-5F3B4B0B384D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7C6AD97D-0354-4FD0-8E91-EBAC4EC551C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$162</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,13 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
-  <si>
-    <t>issued_return_item_id</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="183">
   <si>
     <t>state</t>
   </si>
@@ -50,69 +47,573 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>timestamp</t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
-    <t>department_id</t>
-  </si>
-  <si>
-    <t>employee_id</t>
-  </si>
-  <si>
     <t>item_id</t>
   </si>
   <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>AC_1</t>
-  </si>
-  <si>
-    <t>09.21-14-09-23</t>
-  </si>
-  <si>
-    <t>MrSadheera</t>
-  </si>
-  <si>
-    <t>IT_1</t>
-  </si>
-  <si>
-    <t>emp001</t>
-  </si>
-  <si>
-    <t>emp004</t>
-  </si>
-  <si>
-    <t>Hand over with 100% working state.</t>
-  </si>
-  <si>
-    <t>LP_1</t>
-  </si>
-  <si>
-    <t>ENG_1</t>
-  </si>
-  <si>
-    <t>1 Without mouse
-1 100% working</t>
-  </si>
-  <si>
-    <t>MrKasun</t>
-  </si>
-  <si>
-    <t>Received with 100% quality</t>
+    <t>User</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>EPF</t>
+  </si>
+  <si>
+    <t>isActive</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>store_manager</t>
+  </si>
+  <si>
+    <t>purchase_manager</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>u001</t>
+  </si>
+  <si>
+    <t>u002</t>
+  </si>
+  <si>
+    <t>u003</t>
+  </si>
+  <si>
+    <t>u004</t>
+  </si>
+  <si>
+    <t>u005</t>
+  </si>
+  <si>
+    <t>u006</t>
+  </si>
+  <si>
+    <t>u007</t>
+  </si>
+  <si>
+    <t>Amal</t>
+  </si>
+  <si>
+    <t>Kamal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wimal </t>
+  </si>
+  <si>
+    <t>Limal</t>
+  </si>
+  <si>
+    <t>Nipun</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Hiruni</t>
+  </si>
+  <si>
+    <t>Perera</t>
+  </si>
+  <si>
+    <t>Feri</t>
+  </si>
+  <si>
+    <t>Silva</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Olcot</t>
+  </si>
+  <si>
+    <t>Siri</t>
+  </si>
+  <si>
+    <t>Hey</t>
+  </si>
+  <si>
+    <t>Amal_7853</t>
+  </si>
+  <si>
+    <t>Kamal_4856</t>
+  </si>
+  <si>
+    <t>Wimal_1556</t>
+  </si>
+  <si>
+    <t>Limal_7548</t>
+  </si>
+  <si>
+    <t>Nipun_8659</t>
+  </si>
+  <si>
+    <t>Milan_4538</t>
+  </si>
+  <si>
+    <t>Hiruni_7899</t>
+  </si>
+  <si>
+    <t>User active</t>
+  </si>
+  <si>
+    <t>User inactive</t>
+  </si>
+  <si>
+    <t>Row deleted</t>
+  </si>
+  <si>
+    <t>dept_id</t>
+  </si>
+  <si>
+    <t>first_name +
+EPF</t>
+  </si>
+  <si>
+    <t>from
+department
+table</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>dept_name</t>
+  </si>
+  <si>
+    <t>d001</t>
+  </si>
+  <si>
+    <t>d002</t>
+  </si>
+  <si>
+    <t>d003</t>
+  </si>
+  <si>
+    <t>d004</t>
+  </si>
+  <si>
+    <t>d005</t>
+  </si>
+  <si>
+    <t>d006</t>
+  </si>
+  <si>
+    <t>d007</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Buddhist</t>
+  </si>
+  <si>
+    <t>Not deleted</t>
+  </si>
+  <si>
+    <t>Councelling</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Dancing</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Issued_return_item_history</t>
+  </si>
+  <si>
+    <t>irih_id</t>
+  </si>
+  <si>
+    <t>received_by</t>
+  </si>
+  <si>
+    <t>50% Not working</t>
+  </si>
+  <si>
+    <t>Need to service</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>100% Broken</t>
+  </si>
+  <si>
+    <t>issued</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>i006</t>
+  </si>
+  <si>
+    <t>i105</t>
+  </si>
+  <si>
+    <t>i859</t>
+  </si>
+  <si>
+    <t>i456</t>
+  </si>
+  <si>
+    <t>i452</t>
+  </si>
+  <si>
+    <t>isssue_remark</t>
+  </si>
+  <si>
+    <t>return_remark</t>
+  </si>
+  <si>
+    <t>10% not working</t>
+  </si>
+  <si>
+    <t>90% useless</t>
+  </si>
+  <si>
+    <t>issued_by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issued with 100% working </t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>item_name</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>items_reamaining</t>
+  </si>
+  <si>
+    <t>dell-15</t>
+  </si>
+  <si>
+    <t>fan-stand</t>
+  </si>
+  <si>
+    <t>asus-1</t>
+  </si>
+  <si>
+    <t>acer-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working </t>
+  </si>
+  <si>
+    <t>damaged</t>
+  </si>
+  <si>
+    <t>Warranty</t>
+  </si>
+  <si>
+    <t>warranty_id</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>input_by</t>
+  </si>
+  <si>
+    <t>created_
+time_stamp</t>
+  </si>
+  <si>
+    <t>issued
+time_stamp</t>
+  </si>
+  <si>
+    <t>returned
+time_stamp</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
+    <t>created
+time_stamp</t>
+  </si>
+  <si>
+    <t>w001</t>
+  </si>
+  <si>
+    <t>w002</t>
+  </si>
+  <si>
+    <t>w003</t>
+  </si>
+  <si>
+    <t>w004</t>
+  </si>
+  <si>
+    <t>w005</t>
+  </si>
+  <si>
+    <t>w006</t>
+  </si>
+  <si>
+    <t>document_link</t>
+  </si>
+  <si>
+    <t>not-claimed</t>
+  </si>
+  <si>
+    <t>claimed</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>category_name</t>
+  </si>
+  <si>
+    <t>avilable</t>
+  </si>
+  <si>
+    <t>not-available</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>brand_id</t>
+  </si>
+  <si>
+    <t>brand_name</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Request_id</t>
+  </si>
+  <si>
+    <t>request
+time_stamp</t>
+  </si>
+  <si>
+    <t>department_head
+approval</t>
+  </si>
+  <si>
+    <t>approved</t>
+  </si>
+  <si>
+    <t>not-approved</t>
+  </si>
+  <si>
+    <t>r001</t>
+  </si>
+  <si>
+    <t>r002</t>
+  </si>
+  <si>
+    <t>r003</t>
+  </si>
+  <si>
+    <t>r004</t>
+  </si>
+  <si>
+    <t>r005</t>
+  </si>
+  <si>
+    <t>r006</t>
+  </si>
+  <si>
+    <t>r007</t>
+  </si>
+  <si>
+    <t>department_head
+id</t>
+  </si>
+  <si>
+    <t>head
+time_stamp</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>condtion_updated
+by</t>
+  </si>
+  <si>
+    <t>condition_
+update  
+time_stamp</t>
+  </si>
+  <si>
+    <t>lower_limit</t>
+  </si>
+  <si>
+    <t>list_id</t>
+  </si>
+  <si>
+    <t>Created_by</t>
+  </si>
+  <si>
+    <t>list_no</t>
+  </si>
+  <si>
+    <t>l001</t>
+  </si>
+  <si>
+    <t>l002</t>
+  </si>
+  <si>
+    <t>l003</t>
+  </si>
+  <si>
+    <t>l004</t>
+  </si>
+  <si>
+    <t>l005</t>
+  </si>
+  <si>
+    <t>l006</t>
+  </si>
+  <si>
+    <t>ln001</t>
+  </si>
+  <si>
+    <t>ln004</t>
+  </si>
+  <si>
+    <t>p001</t>
+  </si>
+  <si>
+    <t>p002</t>
+  </si>
+  <si>
+    <t>p003</t>
+  </si>
+  <si>
+    <t>p004</t>
+  </si>
+  <si>
+    <t>p005</t>
+  </si>
+  <si>
+    <t>p006</t>
+  </si>
+  <si>
+    <t>p007</t>
+  </si>
+  <si>
+    <t>p008</t>
+  </si>
+  <si>
+    <t>c001</t>
+  </si>
+  <si>
+    <t>c002</t>
+  </si>
+  <si>
+    <t>c003</t>
+  </si>
+  <si>
+    <t>c004</t>
+  </si>
+  <si>
+    <t>c005</t>
+  </si>
+  <si>
+    <t>c006</t>
+  </si>
+  <si>
+    <t>c007</t>
+  </si>
+  <si>
+    <t>head_approve
+status</t>
+  </si>
+  <si>
+    <t>head_approve
+timestamp</t>
+  </si>
+  <si>
+    <t>created_timestamp</t>
+  </si>
+  <si>
+    <t>Purchasing_list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:mm"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,8 +621,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,18 +670,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,16 +683,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,170 +1060,1819 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95CA8C8-82BE-40BC-8871-F9C457D45A7D}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A2:T159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A130" zoomScale="60" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="31.2" customHeight="1">
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="O3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="54.6" customHeight="1">
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7853</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4856</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1556</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7548</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="18.600000000000001" customHeight="1">
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="2">
+        <v>8659</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4538</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7899</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="O14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="G15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="G17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="2">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="G18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="2">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="19" spans="1:8">
+      <c r="G19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="2">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18.600000000000001" customHeight="1">
+      <c r="C24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="C26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="C27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="C28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="C29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="C30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="C31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="1" customFormat="1" ht="28.8">
+      <c r="C35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" ht="15">
+      <c r="C38" s="2">
+        <v>1234</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K38" s="11">
+        <v>45243.737835648149</v>
+      </c>
+      <c r="L38" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15">
+      <c r="C39" s="2">
+        <v>1235</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="11">
+        <v>45243.737835648149</v>
+      </c>
+      <c r="L39" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15">
+      <c r="C40" s="2">
+        <v>1236</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K40" s="11">
+        <v>45243.737835648149</v>
+      </c>
+      <c r="L40" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15">
+      <c r="C41" s="2">
+        <v>1237</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="11">
+        <v>45243.737835648149</v>
+      </c>
+      <c r="L41" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15">
+      <c r="C42" s="2">
+        <v>1238</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K42" s="11">
+        <v>45244.737835648149</v>
+      </c>
+      <c r="L42" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15">
+      <c r="C43" s="2">
+        <v>1239</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="11">
+        <v>45245.737835648149</v>
+      </c>
+      <c r="L43" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15">
+      <c r="C44" s="2">
+        <v>1240</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K44" s="11">
+        <v>45246.737835648149</v>
+      </c>
+      <c r="L44" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="D48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="D49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="D50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="D51" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" s="1" customFormat="1" ht="43.2">
+      <c r="C54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="C55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2">
+        <v>5</v>
+      </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="C56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2">
+        <v>3</v>
+      </c>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="C57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="C58" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2">
+        <v>5</v>
+      </c>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="C59" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2">
+        <v>1</v>
+      </c>
+      <c r="T59" s="16"/>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="D62" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="D63" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="D64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="1" customFormat="1">
+      <c r="C70" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="C71" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="C72" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="C73" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="C74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="C75" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="C76" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="E79" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="E80" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="E81" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="1" customFormat="1" ht="28.8">
+      <c r="C87" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="C88" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="C89" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="C90" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="C91" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="C92" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="C93" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="C94" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="F96" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="F97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="F98" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="1" customFormat="1" ht="28.8">
+      <c r="C104" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="C105" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="C106" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="C107" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="C108" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="C109" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="C110" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="C111" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="C112" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117">
+        <v>8</v>
+      </c>
+      <c r="B117" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="1" customFormat="1" ht="28.8">
+      <c r="C118" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G118" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="B131" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" s="1" customFormat="1" ht="43.2">
+      <c r="C132" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E132" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F132" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="G132" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H132" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I132" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J132" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K132" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="C133" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="C134" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="C135" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="C136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="C137" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="C138" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="C139" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+    </row>
+    <row r="144" spans="1:11" ht="43.2">
+      <c r="E144" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="E145" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F145" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="E146" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F146" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="E147" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10.3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
+      <c r="B152" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" s="1" customFormat="1" ht="28.8">
+      <c r="C153" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D153" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F153" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I153" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="J153" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="K153" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="C154" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="C155" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="C156" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="C157" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="C158" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="C159" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="47" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="65" max="16" man="1"/>
+    <brk id="129" max="16" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/Documents/ER_Inventory/Test_Excel.xlsx
+++ b/Documents/ER_Inventory/Test_Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SALINDA SANDARUWAN\SIBA_Dynamics\Inventory-system-Dynamics\Inventory-2k23\Documents\ER_Inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SALINDA SANDARUWAN\SIBA_Dynamics\SIBA-Inventory-system-Dynamics\Inventory-2k23\Documents\ER_Inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE302D78-41B0-4E79-BC6E-5F3B4B0B384D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD19AF6-F7FE-4618-9923-E0589425D0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7C6AD97D-0354-4FD0-8E91-EBAC4EC551C4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="184">
   <si>
     <t>state</t>
   </si>
@@ -604,6 +604,9 @@
   </si>
   <si>
     <t>Purchasing_list</t>
+  </si>
+  <si>
+    <t>issue_or_return</t>
   </si>
 </sst>
 </file>
@@ -613,7 +616,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:mm"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,7 +664,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,6 +674,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -743,9 +752,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1062,16 +1078,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95CA8C8-82BE-40BC-8871-F9C457D45A7D}">
   <dimension ref="A2:T159"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A130" zoomScale="60" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScale="88" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.77734375" bestFit="1" customWidth="1"/>
@@ -1084,7 +1100,7 @@
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1092,48 +1108,48 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="31.2" customHeight="1">
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="54.6" customHeight="1">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
         <v>51</v>
@@ -1152,7 +1168,7 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1183,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1214,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1245,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1276,7 +1292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="18.600000000000001" customHeight="1">
+    <row r="9" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1307,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1338,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1369,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1383,7 +1399,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1403,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1423,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1431,7 +1447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1439,7 +1455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1447,7 +1463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1455,21 +1471,21 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="C24" s="4" t="s">
+    <row r="24" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C25" s="2" t="s">
         <v>55</v>
       </c>
@@ -1483,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
         <v>56</v>
       </c>
@@ -1497,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C27" s="2" t="s">
         <v>57</v>
       </c>
@@ -1511,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
         <v>58</v>
       </c>
@@ -1525,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C29" s="2" t="s">
         <v>59</v>
       </c>
@@ -1539,7 +1555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
         <v>60</v>
       </c>
@@ -1553,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
         <v>61</v>
       </c>
@@ -1567,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1575,20 +1591,20 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" ht="28.8">
-      <c r="C35" s="4" t="s">
+    <row r="35" spans="1:12" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C35" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5" t="s">
+      <c r="E35" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F35" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="19" t="s">
         <v>89</v>
       </c>
       <c r="H35" s="14" t="s">
@@ -1607,7 +1623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1623,7 +1639,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1635,7 +1651,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="15">
+    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C38" s="2">
         <v>1234</v>
       </c>
@@ -1665,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15">
+    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C39" s="2">
         <v>1235</v>
       </c>
@@ -1695,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15">
+    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C40" s="2">
         <v>1236</v>
       </c>
@@ -1725,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15">
+    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C41" s="2">
         <v>1237</v>
       </c>
@@ -1755,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15">
+    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C42" s="2">
         <v>1238</v>
       </c>
@@ -1785,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15">
+    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C43" s="2">
         <v>1239</v>
       </c>
@@ -1815,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15">
+    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C44" s="2">
         <v>1240</v>
       </c>
@@ -1845,13 +1861,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D48" s="2" t="s">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D49" s="2" t="s">
         <v>78</v>
       </c>
@@ -1859,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D50" s="2" t="s">
         <v>79</v>
       </c>
@@ -1867,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D51" s="2" t="s">
         <v>148</v>
       </c>
@@ -1875,7 +1891,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
@@ -1883,7 +1899,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="1" customFormat="1" ht="43.2">
+    <row r="54" spans="1:20" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C54" s="4" t="s">
         <v>3</v>
       </c>
@@ -1921,7 +1937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C55" s="2" t="s">
         <v>80</v>
       </c>
@@ -1945,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C56" s="2" t="s">
         <v>81</v>
       </c>
@@ -1969,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C57" s="2" t="s">
         <v>82</v>
       </c>
@@ -1993,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C58" s="2" t="s">
         <v>83</v>
       </c>
@@ -2017,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C59" s="2" t="s">
         <v>84</v>
       </c>
@@ -2042,13 +2058,13 @@
       </c>
       <c r="T59" s="16"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D62" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D63" s="2" t="s">
         <v>99</v>
       </c>
@@ -2056,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D64" s="2" t="s">
         <v>100</v>
       </c>
@@ -2064,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>5</v>
       </c>
@@ -2072,7 +2088,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="1" customFormat="1">
+    <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C70" s="15" t="s">
         <v>102</v>
       </c>
@@ -2101,7 +2117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C71" s="2" t="s">
         <v>113</v>
       </c>
@@ -2116,7 +2132,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C72" s="2" t="s">
         <v>114</v>
       </c>
@@ -2131,7 +2147,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C73" s="2" t="s">
         <v>115</v>
       </c>
@@ -2146,7 +2162,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C74" s="2" t="s">
         <v>116</v>
       </c>
@@ -2161,7 +2177,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C75" s="2" t="s">
         <v>117</v>
       </c>
@@ -2176,7 +2192,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C76" s="2" t="s">
         <v>118</v>
       </c>
@@ -2191,13 +2207,13 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E79" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E80" s="2" t="s">
         <v>120</v>
       </c>
@@ -2205,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E81" s="2" t="s">
         <v>121</v>
       </c>
@@ -2213,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>6</v>
       </c>
@@ -2221,7 +2237,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" ht="28.8">
+    <row r="87" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C87" s="15" t="s">
         <v>123</v>
       </c>
@@ -2241,7 +2257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C88" s="2" t="s">
         <v>172</v>
       </c>
@@ -2253,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C89" s="2" t="s">
         <v>173</v>
       </c>
@@ -2265,7 +2281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C90" s="2" t="s">
         <v>174</v>
       </c>
@@ -2277,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C91" s="2" t="s">
         <v>175</v>
       </c>
@@ -2289,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C92" s="2" t="s">
         <v>176</v>
       </c>
@@ -2301,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C93" s="2" t="s">
         <v>177</v>
       </c>
@@ -2311,7 +2327,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C94" s="2" t="s">
         <v>178</v>
       </c>
@@ -2321,13 +2337,13 @@
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F96" s="2" t="s">
         <v>104</v>
       </c>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F97" s="2" t="s">
         <v>125</v>
       </c>
@@ -2335,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F98" s="2" t="s">
         <v>126</v>
       </c>
@@ -2343,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>7</v>
       </c>
@@ -2351,7 +2367,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="1" customFormat="1" ht="28.8">
+    <row r="104" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C104" s="4" t="s">
         <v>128</v>
       </c>
@@ -2374,7 +2390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C105" s="2" t="s">
         <v>164</v>
       </c>
@@ -2387,7 +2403,7 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C106" s="2" t="s">
         <v>165</v>
       </c>
@@ -2400,7 +2416,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C107" s="2" t="s">
         <v>166</v>
       </c>
@@ -2413,7 +2429,7 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C108" s="2" t="s">
         <v>167</v>
       </c>
@@ -2426,7 +2442,7 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C109" s="2" t="s">
         <v>168</v>
       </c>
@@ -2439,7 +2455,7 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C110" s="2" t="s">
         <v>169</v>
       </c>
@@ -2452,7 +2468,7 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C111" s="2" t="s">
         <v>170</v>
       </c>
@@ -2465,7 +2481,7 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C112" s="2" t="s">
         <v>171</v>
       </c>
@@ -2478,7 +2494,7 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>8</v>
       </c>
@@ -2486,7 +2502,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="1" customFormat="1" ht="28.8">
+    <row r="118" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C118" s="4" t="s">
         <v>131</v>
       </c>
@@ -2509,7 +2525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -2518,7 +2534,7 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -2527,7 +2543,7 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -2536,7 +2552,7 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -2545,7 +2561,7 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -2554,7 +2570,7 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -2563,7 +2579,7 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -2572,7 +2588,7 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -2581,7 +2597,7 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>9</v>
       </c>
@@ -2589,14 +2605,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="132" spans="1:11" s="1" customFormat="1" ht="43.2">
+    <row r="132" spans="1:11" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C132" s="4" t="s">
         <v>134</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E132" s="18" t="s">
+      <c r="E132" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F132" s="4" t="s">
@@ -2618,7 +2634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C133" s="2" t="s">
         <v>139</v>
       </c>
@@ -2631,7 +2647,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C134" s="2" t="s">
         <v>140</v>
       </c>
@@ -2644,7 +2660,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C135" s="2" t="s">
         <v>141</v>
       </c>
@@ -2657,7 +2673,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C136" s="2" t="s">
         <v>142</v>
       </c>
@@ -2670,7 +2686,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C137" s="2" t="s">
         <v>143</v>
       </c>
@@ -2683,7 +2699,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C138" s="2" t="s">
         <v>144</v>
       </c>
@@ -2696,7 +2712,7 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C139" s="2" t="s">
         <v>145</v>
       </c>
@@ -2709,13 +2725,13 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="144" spans="1:11" ht="43.2">
+    <row r="144" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E144" s="14" t="s">
         <v>136</v>
       </c>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E145" s="2" t="s">
         <v>137</v>
       </c>
@@ -2723,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E146" s="2" t="s">
         <v>138</v>
       </c>
@@ -2731,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E147" s="2" t="s">
         <v>148</v>
       </c>
@@ -2739,7 +2755,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>10</v>
       </c>
@@ -2747,17 +2763,17 @@
         <v>182</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="1" customFormat="1" ht="28.8">
+    <row r="153" spans="1:11" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C153" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D153" s="18" t="s">
+      <c r="D153" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F153" s="18" t="s">
+      <c r="F153" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G153" s="5" t="s">
@@ -2776,7 +2792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C154" s="2" t="s">
         <v>156</v>
       </c>
@@ -2791,7 +2807,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C155" s="2" t="s">
         <v>157</v>
       </c>
@@ -2806,7 +2822,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C156" s="2" t="s">
         <v>158</v>
       </c>
@@ -2821,7 +2837,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C157" s="2" t="s">
         <v>159</v>
       </c>
@@ -2836,7 +2852,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C158" s="2" t="s">
         <v>160</v>
       </c>
@@ -2851,7 +2867,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C159" s="2" t="s">
         <v>161</v>
       </c>

--- a/Documents/ER_Inventory/Test_Excel.xlsx
+++ b/Documents/ER_Inventory/Test_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SALINDA SANDARUWAN\SIBA_Dynamics\SIBA-Inventory-system-Dynamics\Inventory-2k23\Documents\ER_Inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD19AF6-F7FE-4618-9923-E0589425D0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C2F5B8-75B6-4DAD-940B-6D393CBCD0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7C6AD97D-0354-4FD0-8E91-EBAC4EC551C4}"/>
   </bookViews>
@@ -616,7 +616,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:mm"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1078,11 +1078,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95CA8C8-82BE-40BC-8871-F9C457D45A7D}">
   <dimension ref="A2:T159"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScale="88" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="70" zoomScaleNormal="117" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
@@ -1100,7 +1100,7 @@
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="31.2" customHeight="1">
       <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="54.6" customHeight="1">
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
         <v>51</v>
@@ -1168,7 +1168,7 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="18.600000000000001" customHeight="1">
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="G15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="G16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="G17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="G18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="G19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="18.600000000000001" customHeight="1">
       <c r="C24" s="18" t="s">
         <v>50</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="C25" s="2" t="s">
         <v>55</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="C26" s="2" t="s">
         <v>56</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="C27" s="2" t="s">
         <v>57</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="C28" s="2" t="s">
         <v>58</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="C29" s="2" t="s">
         <v>59</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="C30" s="2" t="s">
         <v>60</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="C31" s="2" t="s">
         <v>61</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" s="1" customFormat="1" ht="28.8">
       <c r="C35" s="18" t="s">
         <v>72</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="G35" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H35" s="14" t="s">
+      <c r="H35" s="20" t="s">
         <v>109</v>
       </c>
       <c r="I35" s="5" t="s">
@@ -1623,7 +1623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1639,7 +1639,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1651,7 +1651,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="15">
       <c r="C38" s="2">
         <v>1234</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="15">
       <c r="C39" s="2">
         <v>1235</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="15">
       <c r="C40" s="2">
         <v>1236</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="15">
       <c r="C41" s="2">
         <v>1237</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="15">
       <c r="C42" s="2">
         <v>1238</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="15">
       <c r="C43" s="2">
         <v>1239</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="15">
       <c r="C44" s="2">
         <v>1240</v>
       </c>
@@ -1861,13 +1861,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="D48" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20">
       <c r="D49" s="2" t="s">
         <v>78</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20">
       <c r="D50" s="2" t="s">
         <v>79</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20">
       <c r="D51" s="2" t="s">
         <v>148</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20">
       <c r="A53">
         <v>4</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" s="1" customFormat="1" ht="43.2">
       <c r="C54" s="4" t="s">
         <v>3</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20">
       <c r="C55" s="2" t="s">
         <v>80</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20">
       <c r="C56" s="2" t="s">
         <v>81</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20">
       <c r="C57" s="2" t="s">
         <v>82</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20">
       <c r="C58" s="2" t="s">
         <v>83</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20">
       <c r="C59" s="2" t="s">
         <v>84</v>
       </c>
@@ -2058,13 +2058,13 @@
       </c>
       <c r="T59" s="16"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20">
       <c r="D62" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20">
       <c r="D63" s="2" t="s">
         <v>99</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20">
       <c r="D64" s="2" t="s">
         <v>100</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>5</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="1" customFormat="1">
       <c r="C70" s="15" t="s">
         <v>102</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11">
       <c r="C71" s="2" t="s">
         <v>113</v>
       </c>
@@ -2132,7 +2132,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11">
       <c r="C72" s="2" t="s">
         <v>114</v>
       </c>
@@ -2147,7 +2147,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11">
       <c r="C73" s="2" t="s">
         <v>115</v>
       </c>
@@ -2162,7 +2162,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11">
       <c r="C74" s="2" t="s">
         <v>116</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11">
       <c r="C75" s="2" t="s">
         <v>117</v>
       </c>
@@ -2192,7 +2192,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11">
       <c r="C76" s="2" t="s">
         <v>118</v>
       </c>
@@ -2207,13 +2207,13 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11">
       <c r="E79" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11">
       <c r="E80" s="2" t="s">
         <v>120</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8">
       <c r="E81" s="2" t="s">
         <v>121</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>6</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="1" customFormat="1" ht="28.8">
       <c r="C87" s="15" t="s">
         <v>123</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8">
       <c r="C88" s="2" t="s">
         <v>172</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8">
       <c r="C89" s="2" t="s">
         <v>173</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8">
       <c r="C90" s="2" t="s">
         <v>174</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8">
       <c r="C91" s="2" t="s">
         <v>175</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8">
       <c r="C92" s="2" t="s">
         <v>176</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8">
       <c r="C93" s="2" t="s">
         <v>177</v>
       </c>
@@ -2327,7 +2327,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8">
       <c r="C94" s="2" t="s">
         <v>178</v>
       </c>
@@ -2337,13 +2337,13 @@
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8">
       <c r="F96" s="2" t="s">
         <v>104</v>
       </c>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9">
       <c r="F97" s="2" t="s">
         <v>125</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9">
       <c r="F98" s="2" t="s">
         <v>126</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>7</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" s="1" customFormat="1" ht="28.8">
       <c r="C104" s="4" t="s">
         <v>128</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9">
       <c r="C105" s="2" t="s">
         <v>164</v>
       </c>
@@ -2403,7 +2403,7 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9">
       <c r="C106" s="2" t="s">
         <v>165</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9">
       <c r="C107" s="2" t="s">
         <v>166</v>
       </c>
@@ -2429,7 +2429,7 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9">
       <c r="C108" s="2" t="s">
         <v>167</v>
       </c>
@@ -2442,7 +2442,7 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9">
       <c r="C109" s="2" t="s">
         <v>168</v>
       </c>
@@ -2455,7 +2455,7 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9">
       <c r="C110" s="2" t="s">
         <v>169</v>
       </c>
@@ -2468,7 +2468,7 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9">
       <c r="C111" s="2" t="s">
         <v>170</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9">
       <c r="C112" s="2" t="s">
         <v>171</v>
       </c>
@@ -2494,7 +2494,7 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9">
       <c r="A117">
         <v>8</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" s="1" customFormat="1" ht="28.8">
       <c r="C118" s="4" t="s">
         <v>131</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -2534,7 +2534,7 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -2543,7 +2543,7 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -2552,7 +2552,7 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -2561,7 +2561,7 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -2570,7 +2570,7 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -2579,7 +2579,7 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -2588,7 +2588,7 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -2597,7 +2597,7 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11">
       <c r="A131">
         <v>9</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="132" spans="1:11" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" s="1" customFormat="1" ht="43.2">
       <c r="C132" s="4" t="s">
         <v>134</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11">
       <c r="C133" s="2" t="s">
         <v>139</v>
       </c>
@@ -2647,7 +2647,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11">
       <c r="C134" s="2" t="s">
         <v>140</v>
       </c>
@@ -2660,7 +2660,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11">
       <c r="C135" s="2" t="s">
         <v>141</v>
       </c>
@@ -2673,7 +2673,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11">
       <c r="C136" s="2" t="s">
         <v>142</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11">
       <c r="C137" s="2" t="s">
         <v>143</v>
       </c>
@@ -2699,7 +2699,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11">
       <c r="C138" s="2" t="s">
         <v>144</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11">
       <c r="C139" s="2" t="s">
         <v>145</v>
       </c>
@@ -2725,13 +2725,13 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="144" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="43.2">
       <c r="E144" s="14" t="s">
         <v>136</v>
       </c>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11">
       <c r="E145" s="2" t="s">
         <v>137</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11">
       <c r="E146" s="2" t="s">
         <v>138</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11">
       <c r="E147" s="2" t="s">
         <v>148</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11">
       <c r="A152">
         <v>10</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" s="1" customFormat="1" ht="28.8">
       <c r="C153" s="4" t="s">
         <v>153</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11">
       <c r="C154" s="2" t="s">
         <v>156</v>
       </c>
@@ -2807,7 +2807,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11">
       <c r="C155" s="2" t="s">
         <v>157</v>
       </c>
@@ -2822,7 +2822,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11">
       <c r="C156" s="2" t="s">
         <v>158</v>
       </c>
@@ -2837,7 +2837,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11">
       <c r="C157" s="2" t="s">
         <v>159</v>
       </c>
@@ -2852,7 +2852,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11">
       <c r="C158" s="2" t="s">
         <v>160</v>
       </c>
@@ -2867,7 +2867,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11">
       <c r="C159" s="2" t="s">
         <v>161</v>
       </c>

--- a/Documents/ER_Inventory/Test_Excel.xlsx
+++ b/Documents/ER_Inventory/Test_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SALINDA SANDARUWAN\SIBA_Dynamics\SIBA-Inventory-system-Dynamics\Inventory-2k23\Documents\ER_Inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C2F5B8-75B6-4DAD-940B-6D393CBCD0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33EC674-8FDD-451A-89B3-7FDEA4EDF077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7C6AD97D-0354-4FD0-8E91-EBAC4EC551C4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="184">
   <si>
     <t>state</t>
   </si>
@@ -616,7 +616,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:mm"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,18 +664,12 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -711,19 +705,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -735,9 +723,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -745,23 +730,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1078,11 +1063,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95CA8C8-82BE-40BC-8871-F9C457D45A7D}">
   <dimension ref="A2:T159"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="70" zoomScaleNormal="117" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A148" zoomScale="102" zoomScaleNormal="117" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
@@ -1100,7 +1085,7 @@
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1108,67 +1093,67 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="31.2" customHeight="1">
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="54.6" customHeight="1">
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1189,7 +1174,7 @@
         <v>33</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="8"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2">
@@ -1199,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1230,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1261,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1292,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="18.600000000000001" customHeight="1">
+    <row r="9" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1323,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1354,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1385,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1399,7 +1384,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1419,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1439,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1447,7 +1432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1455,7 +1440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1463,7 +1448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1471,21 +1456,21 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="C24" s="18" t="s">
+    <row r="24" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C25" s="2" t="s">
         <v>55</v>
       </c>
@@ -1499,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
         <v>56</v>
       </c>
@@ -1513,7 +1498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C27" s="2" t="s">
         <v>57</v>
       </c>
@@ -1527,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
         <v>58</v>
       </c>
@@ -1541,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C29" s="2" t="s">
         <v>59</v>
       </c>
@@ -1555,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
         <v>60</v>
       </c>
@@ -1569,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
         <v>61</v>
       </c>
@@ -1583,47 +1568,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" ht="28.8">
-      <c r="C35" s="18" t="s">
+    <row r="35" spans="1:12" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C35" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K35" s="14" t="s">
+      <c r="K35" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="L35" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1639,7 +1624,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1651,7 +1636,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="15">
+    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C38" s="2">
         <v>1234</v>
       </c>
@@ -1674,14 +1659,14 @@
       <c r="J38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="8">
         <v>45243.737835648149</v>
       </c>
-      <c r="L38" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15">
+      <c r="L38" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C39" s="2">
         <v>1235</v>
       </c>
@@ -1704,14 +1689,14 @@
       <c r="J39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K39" s="8">
         <v>45243.737835648149</v>
       </c>
-      <c r="L39" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15">
+      <c r="L39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C40" s="2">
         <v>1236</v>
       </c>
@@ -1734,14 +1719,14 @@
       <c r="J40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="8">
         <v>45243.737835648149</v>
       </c>
-      <c r="L40" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15">
+      <c r="L40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C41" s="2">
         <v>1237</v>
       </c>
@@ -1764,14 +1749,14 @@
       <c r="J41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K41" s="8">
         <v>45243.737835648149</v>
       </c>
-      <c r="L41" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15">
+      <c r="L41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C42" s="2">
         <v>1238</v>
       </c>
@@ -1794,14 +1779,14 @@
       <c r="J42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="8">
         <v>45244.737835648149</v>
       </c>
-      <c r="L42" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15">
+      <c r="L42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C43" s="2">
         <v>1239</v>
       </c>
@@ -1824,14 +1809,14 @@
       <c r="J43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K43" s="8">
         <v>45245.737835648149</v>
       </c>
-      <c r="L43" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="15">
+      <c r="L43" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C44" s="2">
         <v>1240</v>
       </c>
@@ -1854,20 +1839,20 @@
       <c r="J44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K44" s="8">
         <v>45246.737835648149</v>
       </c>
-      <c r="L44" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="L44" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D48" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D49" s="2" t="s">
         <v>78</v>
       </c>
@@ -1875,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D50" s="2" t="s">
         <v>79</v>
       </c>
@@ -1883,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D51" s="2" t="s">
         <v>148</v>
       </c>
@@ -1891,7 +1876,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
@@ -1899,45 +1884,45 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="1" customFormat="1" ht="43.2">
-      <c r="C54" s="4" t="s">
+    <row r="54" spans="1:20" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C54" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="H54" s="14" t="s">
+      <c r="H54" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="I54" s="14" t="s">
+      <c r="I54" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J54" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="K54" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="L54" s="14" t="s">
+      <c r="L54" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="M54" s="14" t="s">
+      <c r="M54" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="N54" s="9" t="s">
+      <c r="N54" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C55" s="2" t="s">
         <v>80</v>
       </c>
@@ -1961,7 +1946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C56" s="2" t="s">
         <v>81</v>
       </c>
@@ -1985,7 +1970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C57" s="2" t="s">
         <v>82</v>
       </c>
@@ -2009,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C58" s="2" t="s">
         <v>83</v>
       </c>
@@ -2033,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C59" s="2" t="s">
         <v>84</v>
       </c>
@@ -2056,15 +2041,15 @@
       <c r="N59" s="2">
         <v>1</v>
       </c>
-      <c r="T59" s="16"/>
-    </row>
-    <row r="62" spans="1:20">
+      <c r="T59" s="12"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D62" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D63" s="2" t="s">
         <v>99</v>
       </c>
@@ -2072,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D64" s="2" t="s">
         <v>100</v>
       </c>
@@ -2080,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>5</v>
       </c>
@@ -2088,36 +2073,36 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="1" customFormat="1">
-      <c r="C70" s="15" t="s">
+    <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="F70" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H70" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I70" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="J70" s="5" t="s">
+      <c r="J70" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="K70" s="9" t="s">
+      <c r="K70" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C71" s="2" t="s">
         <v>113</v>
       </c>
@@ -2132,7 +2117,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C72" s="2" t="s">
         <v>114</v>
       </c>
@@ -2147,7 +2132,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C73" s="2" t="s">
         <v>115</v>
       </c>
@@ -2162,7 +2147,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C74" s="2" t="s">
         <v>116</v>
       </c>
@@ -2177,7 +2162,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C75" s="2" t="s">
         <v>117</v>
       </c>
@@ -2192,7 +2177,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C76" s="2" t="s">
         <v>118</v>
       </c>
@@ -2207,13 +2192,13 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E79" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E80" s="2" t="s">
         <v>120</v>
       </c>
@@ -2221,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E81" s="2" t="s">
         <v>121</v>
       </c>
@@ -2229,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>6</v>
       </c>
@@ -2237,27 +2222,27 @@
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="C87" s="15" t="s">
+    <row r="87" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C87" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F87" s="14" t="s">
+      <c r="F87" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="G87" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H87" s="9" t="s">
+      <c r="H87" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C88" s="2" t="s">
         <v>172</v>
       </c>
@@ -2269,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C89" s="2" t="s">
         <v>173</v>
       </c>
@@ -2281,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C90" s="2" t="s">
         <v>174</v>
       </c>
@@ -2293,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C91" s="2" t="s">
         <v>175</v>
       </c>
@@ -2305,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C92" s="2" t="s">
         <v>176</v>
       </c>
@@ -2317,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C93" s="2" t="s">
         <v>177</v>
       </c>
@@ -2327,7 +2312,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C94" s="2" t="s">
         <v>178</v>
       </c>
@@ -2337,13 +2322,13 @@
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F96" s="2" t="s">
         <v>104</v>
       </c>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F97" s="2" t="s">
         <v>125</v>
       </c>
@@ -2351,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F98" s="2" t="s">
         <v>126</v>
       </c>
@@ -2359,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>7</v>
       </c>
@@ -2367,30 +2352,30 @@
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="1" customFormat="1" ht="28.8">
-      <c r="C104" s="4" t="s">
+    <row r="104" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C104" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G104" s="14" t="s">
+      <c r="G104" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="H104" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="I104" s="9" t="s">
+      <c r="I104" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C105" s="2" t="s">
         <v>164</v>
       </c>
@@ -2403,7 +2388,7 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C106" s="2" t="s">
         <v>165</v>
       </c>
@@ -2416,7 +2401,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C107" s="2" t="s">
         <v>166</v>
       </c>
@@ -2429,7 +2414,7 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C108" s="2" t="s">
         <v>167</v>
       </c>
@@ -2442,7 +2427,7 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C109" s="2" t="s">
         <v>168</v>
       </c>
@@ -2455,7 +2440,7 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C110" s="2" t="s">
         <v>169</v>
       </c>
@@ -2468,7 +2453,7 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C111" s="2" t="s">
         <v>170</v>
       </c>
@@ -2481,7 +2466,7 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C112" s="2" t="s">
         <v>171</v>
       </c>
@@ -2494,7 +2479,7 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>8</v>
       </c>
@@ -2502,102 +2487,91 @@
         <v>130</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="1" customFormat="1" ht="28.8">
-      <c r="C118" s="4" t="s">
+    <row r="118" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C118" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D118" s="17" t="s">
+      <c r="D118" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E118" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F118" s="5" t="s">
+      <c r="E118" s="14" t="s">
         <v>111</v>
       </c>
+      <c r="F118" s="15" t="s">
+        <v>112</v>
+      </c>
       <c r="G118" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H118" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I118" s="9" t="s">
+      <c r="H118" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-    </row>
-    <row r="120" spans="1:9">
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-    </row>
-    <row r="121" spans="1:9">
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-    </row>
-    <row r="122" spans="1:9">
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-    </row>
-    <row r="123" spans="1:9">
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-    </row>
-    <row r="124" spans="1:9">
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-    </row>
-    <row r="125" spans="1:9">
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-    </row>
-    <row r="126" spans="1:9">
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-    </row>
-    <row r="131" spans="1:11">
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>9</v>
       </c>
@@ -2605,36 +2579,36 @@
         <v>133</v>
       </c>
     </row>
-    <row r="132" spans="1:11" s="1" customFormat="1" ht="43.2">
-      <c r="C132" s="4" t="s">
+    <row r="132" spans="1:11" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C132" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D132" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E132" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F132" s="4" t="s">
+      <c r="E132" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F132" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G132" s="14" t="s">
+      <c r="G132" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="H132" s="14" t="s">
+      <c r="H132" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="I132" s="14" t="s">
+      <c r="I132" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="J132" s="14" t="s">
+      <c r="J132" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="K132" s="9" t="s">
+      <c r="K132" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C133" s="2" t="s">
         <v>139</v>
       </c>
@@ -2647,7 +2621,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C134" s="2" t="s">
         <v>140</v>
       </c>
@@ -2660,7 +2634,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C135" s="2" t="s">
         <v>141</v>
       </c>
@@ -2673,7 +2647,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C136" s="2" t="s">
         <v>142</v>
       </c>
@@ -2686,7 +2660,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C137" s="2" t="s">
         <v>143</v>
       </c>
@@ -2699,7 +2673,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C138" s="2" t="s">
         <v>144</v>
       </c>
@@ -2712,7 +2686,7 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C139" s="2" t="s">
         <v>145</v>
       </c>
@@ -2725,13 +2699,13 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="144" spans="1:11" ht="43.2">
-      <c r="E144" s="14" t="s">
+    <row r="144" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E144" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E145" s="2" t="s">
         <v>137</v>
       </c>
@@ -2739,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E146" s="2" t="s">
         <v>138</v>
       </c>
@@ -2747,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E147" s="2" t="s">
         <v>148</v>
       </c>
@@ -2755,7 +2729,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>10</v>
       </c>
@@ -2763,36 +2737,36 @@
         <v>182</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="1" customFormat="1" ht="28.8">
-      <c r="C153" s="4" t="s">
+    <row r="153" spans="1:11" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C153" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D153" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E153" s="4" t="s">
+      <c r="E153" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F153" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G153" s="5" t="s">
+      <c r="F153" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G153" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="H153" s="5" t="s">
+      <c r="H153" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="I153" s="14" t="s">
+      <c r="I153" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="J153" s="14" t="s">
+      <c r="J153" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="K153" s="9" t="s">
+      <c r="K153" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C154" s="2" t="s">
         <v>156</v>
       </c>
@@ -2807,7 +2781,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C155" s="2" t="s">
         <v>157</v>
       </c>
@@ -2822,7 +2796,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C156" s="2" t="s">
         <v>158</v>
       </c>
@@ -2837,7 +2811,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C157" s="2" t="s">
         <v>159</v>
       </c>
@@ -2852,7 +2826,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C158" s="2" t="s">
         <v>160</v>
       </c>
@@ -2867,7 +2841,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C159" s="2" t="s">
         <v>161</v>
       </c>

--- a/Documents/ER_Inventory/Test_Excel.xlsx
+++ b/Documents/ER_Inventory/Test_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SALINDA SANDARUWAN\SIBA_Dynamics\SIBA-Inventory-system-Dynamics\Inventory-2k23\Documents\ER_Inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33EC674-8FDD-451A-89B3-7FDEA4EDF077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE709F5B-75B1-4387-8D65-2B9F37445E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7C6AD97D-0354-4FD0-8E91-EBAC4EC551C4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="184">
   <si>
     <t>state</t>
   </si>
@@ -1063,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95CA8C8-82BE-40BC-8871-F9C457D45A7D}">
   <dimension ref="A2:T159"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A148" zoomScale="102" zoomScaleNormal="117" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="102" zoomScaleNormal="117" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1128,9 +1128,6 @@
         <v>108</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1151,7 +1148,6 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
@@ -1180,9 +1176,6 @@
       <c r="N5" s="2">
         <v>1</v>
       </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
@@ -1211,9 +1204,6 @@
       <c r="N6" s="2">
         <v>1</v>
       </c>
-      <c r="O6" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
@@ -1240,9 +1230,6 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1273,9 +1260,6 @@
       <c r="N8" s="2">
         <v>1</v>
       </c>
-      <c r="O8" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
@@ -1304,9 +1288,6 @@
       <c r="N9" s="2">
         <v>1</v>
       </c>
-      <c r="O9" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
@@ -1335,9 +1316,6 @@
       <c r="N10" s="2">
         <v>1</v>
       </c>
-      <c r="O10" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
@@ -1364,9 +1342,6 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2">
         <v>1</v>
       </c>
     </row>
